--- a/src/main/resources/excel-templates/area-division.xlsx
+++ b/src/main/resources/excel-templates/area-division.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A29D9BB-0A8E-4BDF-A7B9-286E42B67207}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B50D50-B010-446D-8101-220F79B950CD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <r>
       <t>商务小组</t>
@@ -52,23 +52,6 @@
   </si>
   <si>
     <r>
-      <t>签约项目</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*(英文空格分隔)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>区域</t>
     </r>
     <r>
@@ -102,23 +85,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南京天策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京,河北,黑龙江,吉林,辽宁,内蒙古,天津，河南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秦-2-1-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柠檬达人 正客披萨 咕米便当 乌所味 茶丸家</t>
+    <r>
+      <t>签约项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*(英文,分隔)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -539,36 +519,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
